--- a/DATA/Final_format_of_marksheet_3.xlsx
+++ b/DATA/Final_format_of_marksheet_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav\Desktop\Electrocom\marksheet_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav\Desktop\Electrocom\marksheet\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5D7B-C786-470A-BA80-6A12BAD79030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9FCF8-CF71-46CB-8FC3-5315EB79E47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{3F080E8B-5B0F-4094-A072-3ABB006A64D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F080E8B-5B0F-4094-A072-3ABB006A64D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,13 +153,13 @@
     <t>school_dice_code</t>
   </si>
   <si>
-    <t>kendra_code</t>
-  </si>
-  <si>
     <t>examination_date</t>
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>examination_center_code</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,13 +602,13 @@
         <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
         <v>38</v>
@@ -617,7 +617,7 @@
         <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
         <v>10</v>
